--- a/src/public/files/sample-create-exercises.xlsx
+++ b/src/public/files/sample-create-exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\web\nodejs\DACN\PC3_App\src\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clone\Education_DACN\src\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FA07E8-B939-436E-8BA6-60471A7C24A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDABAF70-2B95-40D6-9E39-4E209687A170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="912" yWindow="636" windowWidth="20628" windowHeight="11328" xr2:uid="{ACA4A631-7668-4624-8DB6-0BF0E4D74A08}"/>
+    <workbookView xWindow="-24915" yWindow="2130" windowWidth="17280" windowHeight="9465" xr2:uid="{ACA4A631-7668-4624-8DB6-0BF0E4D74A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -61,22 +61,13 @@
     <t>Lời giải</t>
   </si>
   <si>
-    <t>Loại câu hỏi</t>
-  </si>
-  <si>
     <t>1+1=</t>
   </si>
   <si>
     <t>abc</t>
   </si>
   <si>
-    <t>nhận biết</t>
-  </si>
-  <si>
     <t>2+2=</t>
-  </si>
-  <si>
-    <t>thông hiểu</t>
   </si>
   <si>
     <t>Loại câu hỏi: nhận biết, vận dụng, thông hiểu, vận dụng cao</t>
@@ -465,7 +456,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,11 +499,9 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="1"/>
       <c r="L1" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -525,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -543,21 +532,19 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -575,14 +562,12 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
